--- a/raw_data/inventory_table.xlsx
+++ b/raw_data/inventory_table.xlsx
@@ -1,21 +1,420 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelinechia/Desktop/NUS/Btech/year 4/Capstone/Project/nus_nanyang_cafe_capstone/raw_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5987873-2B1C-2C4E-A87F-1B91AA5A1989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="500" yWindow="780" windowWidth="14340" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>ingredientName</t>
+  </si>
+  <si>
+    <t>packagingSize</t>
+  </si>
+  <si>
+    <t>packagingPrice</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Chicken oil</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Red pepper</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>Dried onion</t>
+  </si>
+  <si>
+    <t>Chicken powder</t>
+  </si>
+  <si>
+    <t>sesame oil</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>Chicken rice</t>
+  </si>
+  <si>
+    <t>Licorice</t>
+  </si>
+  <si>
+    <t>Wolfberry</t>
+  </si>
+  <si>
+    <t>Yuzhu</t>
+  </si>
+  <si>
+    <t>Chuan Gong</t>
+  </si>
+  <si>
+    <t>Sichuan peppercorn</t>
+  </si>
+  <si>
+    <t>star anise</t>
+  </si>
+  <si>
+    <t>Ribs and pork chops</t>
+  </si>
+  <si>
+    <t>crystal sugar</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>Fish fillet fish cake</t>
+  </si>
+  <si>
+    <t>Shrimp</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>Sprout</t>
+  </si>
+  <si>
+    <t>Laksa sauce</t>
+  </si>
+  <si>
+    <t>Shrimp rice</t>
+  </si>
+  <si>
+    <t>Coconut milk</t>
+  </si>
+  <si>
+    <t>Soup soy sauce</t>
+  </si>
+  <si>
+    <t>lobster</t>
+  </si>
+  <si>
+    <t>Cooked shrimp</t>
+  </si>
+  <si>
+    <t>Hainan Chicken</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>Beehoon</t>
+  </si>
+  <si>
+    <t>Chinese chives</t>
+  </si>
+  <si>
+    <t>lemongrass</t>
+  </si>
+  <si>
+    <t>Curry sauce</t>
+  </si>
+  <si>
+    <t>Chicken full wings</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Baguette</t>
+  </si>
+  <si>
+    <t>Coconut Chicken Soup</t>
+  </si>
+  <si>
+    <t>chicken soup</t>
+  </si>
+  <si>
+    <t>Yuanxi</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>Ma Zhilin</t>
+  </si>
+  <si>
+    <t>Chicken Wings</t>
+  </si>
+  <si>
+    <t>Curry powder</t>
+  </si>
+  <si>
+    <t>peanut</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>Green pepper</t>
+  </si>
+  <si>
+    <t>Cumin powder</t>
+  </si>
+  <si>
+    <t>Satay pork skewers</t>
+  </si>
+  <si>
+    <t>Satay sauce</t>
+  </si>
+  <si>
+    <t>Nanjiang</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Shi Su</t>
+  </si>
+  <si>
+    <t>Dried peppers</t>
+  </si>
+  <si>
+    <t>Shrimp paste</t>
+  </si>
+  <si>
+    <t>Sticky rice</t>
+  </si>
+  <si>
+    <t>Kaya sauce</t>
+  </si>
+  <si>
+    <t>Shrimp sauce</t>
+  </si>
+  <si>
+    <t>Oyster sauce</t>
+  </si>
+  <si>
+    <t>Huadiao wine</t>
+  </si>
+  <si>
+    <t>Tomato juice</t>
+  </si>
+  <si>
+    <t>White sugar</t>
+  </si>
+  <si>
+    <t>Sesame</t>
+  </si>
+  <si>
+    <t>Seafood sauce</t>
+  </si>
+  <si>
+    <t>Concentrated chicken sauce</t>
+  </si>
+  <si>
+    <t>Pandan leaves</t>
+  </si>
+  <si>
+    <t>Chilli padi</t>
+  </si>
+  <si>
+    <t>Thai chilli</t>
+  </si>
+  <si>
+    <t>Calamasi</t>
+  </si>
+  <si>
+    <t>Yipinxian dark Soy sauce</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Chicken Rice Chilli sauce</t>
+  </si>
+  <si>
+    <t>Ginger paste</t>
+  </si>
+  <si>
+    <t>Chicken rice dark soy sauce</t>
+  </si>
+  <si>
+    <t>Angelica Root Slices</t>
+  </si>
+  <si>
+    <t>Dang sheng</t>
+  </si>
+  <si>
+    <t>cinnamon</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Bak Kut Teh Sauce Pack</t>
+  </si>
+  <si>
+    <t>youtiao</t>
+  </si>
+  <si>
+    <t>deep fried tofu</t>
+  </si>
+  <si>
+    <t>Laksa paste</t>
+  </si>
+  <si>
+    <t>Thick bee hoon</t>
+  </si>
+  <si>
+    <t>sambal sauce</t>
+  </si>
+  <si>
+    <t>rock sugar</t>
+  </si>
+  <si>
+    <t>dried shrimp</t>
+  </si>
+  <si>
+    <t>evaporated milk</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>MeeSiam sauce</t>
+  </si>
+  <si>
+    <t>fine sugar</t>
+  </si>
+  <si>
+    <t>Fried bee hoon</t>
+  </si>
+  <si>
+    <t>MeeSiam gravy</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>Big chicken drumstick</t>
+  </si>
+  <si>
+    <t>Curry gravy</t>
+  </si>
+  <si>
+    <t>chicken meat</t>
+  </si>
+  <si>
+    <t>sliver sprout</t>
+  </si>
+  <si>
+    <t>Malaysia chicken soup pack</t>
+  </si>
+  <si>
+    <t>shredded Chicken</t>
+  </si>
+  <si>
+    <t>Yellow noodle</t>
+  </si>
+  <si>
+    <t>prawn soup ingredients pack</t>
+  </si>
+  <si>
+    <t>prawn soup</t>
+  </si>
+  <si>
+    <t>kang kong</t>
+  </si>
+  <si>
+    <t>fish slices</t>
+  </si>
+  <si>
+    <t>fish roe</t>
+  </si>
+  <si>
+    <t>Sambal sauce</t>
+  </si>
+  <si>
+    <t>dry noodle sauce</t>
+  </si>
+  <si>
+    <t>Tau kwa</t>
+  </si>
+  <si>
+    <t>Pork Belly</t>
+  </si>
+  <si>
+    <t>Butterfly pea</t>
+  </si>
+  <si>
+    <t>fish ball</t>
+  </si>
+  <si>
+    <t>Peanut butter sauce</t>
+  </si>
+  <si>
+    <t>fermented beancurd</t>
+  </si>
+  <si>
+    <t>malt sugar</t>
+  </si>
+  <si>
+    <t>Steamed rice roll</t>
+  </si>
+  <si>
+    <t>rice roll sauce</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +462,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +514,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +548,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +583,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,48 +759,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>pid</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ingredientName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>packagingSize</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>packagingPrice</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>unitPrice</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rice</t>
-        </is>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>25000</v>
@@ -400,17 +802,15 @@
         <v>230</v>
       </c>
       <c r="E2">
-        <v>0.0092</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Concentrated chicken juice</t>
-        </is>
+      <c r="B3" t="s">
+        <v>73</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -419,17 +819,15 @@
         <v>78</v>
       </c>
       <c r="E3">
-        <v>0.078</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Salt</t>
-        </is>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>454</v>
@@ -441,14 +839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Colorful leaves</t>
-        </is>
+      <c r="B5" t="s">
+        <v>74</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -460,14 +856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chicken oil</t>
-        </is>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>600</v>
@@ -476,17 +870,15 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0.0167</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Garlic</t>
-        </is>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>600</v>
@@ -495,17 +887,15 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>0.0167</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Red pepper</t>
-        </is>
+      <c r="B8" t="s">
+        <v>75</v>
       </c>
       <c r="C8">
         <v>600</v>
@@ -514,17 +904,15 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Taijiao</t>
-        </is>
+      <c r="B9" t="s">
+        <v>76</v>
       </c>
       <c r="C9">
         <v>600</v>
@@ -536,14 +924,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Salt</t>
-        </is>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
       <c r="C10">
         <v>454</v>
@@ -552,17 +938,15 @@
         <v>2.5</v>
       </c>
       <c r="E10">
-        <v>0.0055</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
       <c r="C11">
         <v>15000</v>
@@ -574,14 +958,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Lime water</t>
-        </is>
+      <c r="B12" t="s">
+        <v>77</v>
       </c>
       <c r="C12">
         <v>1000</v>
@@ -593,14 +975,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ginger</t>
-        </is>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
       <c r="C13">
         <v>600</v>
@@ -609,17 +989,15 @@
         <v>15.5</v>
       </c>
       <c r="E13">
-        <v>0.0258</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>sugar</t>
-        </is>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
       <c r="C14">
         <v>600</v>
@@ -628,17 +1006,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>0.0133</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Dried onion</t>
-        </is>
+      <c r="B15" t="s">
+        <v>12</v>
       </c>
       <c r="C15">
         <v>600</v>
@@ -647,17 +1023,15 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.0217</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Chicken powder</t>
-        </is>
+      <c r="B16" t="s">
+        <v>13</v>
       </c>
       <c r="C16">
         <v>1000</v>
@@ -669,14 +1043,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sesame oil</t>
-        </is>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="C17">
         <v>750</v>
@@ -685,17 +1057,15 @@
         <v>42</v>
       </c>
       <c r="E17">
-        <v>0.056</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Soy sauce fresh</t>
-        </is>
+      <c r="B18" t="s">
+        <v>78</v>
       </c>
       <c r="C18">
         <v>1600</v>
@@ -704,17 +1074,15 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>0.0188</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Chicken powder</t>
-        </is>
+      <c r="B19" t="s">
+        <v>13</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -723,17 +1091,15 @@
         <v>68</v>
       </c>
       <c r="E19">
-        <v>0.068</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Concentrated chicken juice</t>
-        </is>
+      <c r="B20" t="s">
+        <v>73</v>
       </c>
       <c r="C20">
         <v>1000</v>
@@ -742,17 +1108,15 @@
         <v>70</v>
       </c>
       <c r="E20">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>sugar</t>
-        </is>
+      <c r="B21" t="s">
+        <v>11</v>
       </c>
       <c r="C21">
         <v>600</v>
@@ -764,14 +1128,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>sesame oil</t>
-        </is>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
       <c r="C22">
         <v>750</v>
@@ -780,17 +1142,15 @@
         <v>35</v>
       </c>
       <c r="E22">
-        <v>0.0467</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Salt</t>
-        </is>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23">
         <v>454</v>
@@ -799,17 +1159,15 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>0.0066</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>chicken</t>
-        </is>
+      <c r="B24" t="s">
+        <v>15</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -821,14 +1179,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Green melon</t>
-        </is>
+      <c r="B25" t="s">
+        <v>79</v>
       </c>
       <c r="C25">
         <v>600</v>
@@ -837,17 +1193,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>0.0133</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>tomato</t>
-        </is>
+      <c r="B26" t="s">
+        <v>16</v>
       </c>
       <c r="C26">
         <v>600</v>
@@ -856,17 +1210,15 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Chicken rice</t>
-        </is>
+      <c r="B27" t="s">
+        <v>17</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -878,14 +1230,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Chicken Rice Chili</t>
-        </is>
+      <c r="B28" t="s">
+        <v>80</v>
       </c>
       <c r="C28">
         <v>40</v>
@@ -894,17 +1244,15 @@
         <v>15.6159</v>
       </c>
       <c r="E28">
-        <v>0.3904</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.39040000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Jiang Rong</t>
-        </is>
+      <c r="B29" t="s">
+        <v>81</v>
       </c>
       <c r="C29">
         <v>150</v>
@@ -913,17 +1261,15 @@
         <v>283.4667</v>
       </c>
       <c r="E29">
-        <v>1.8898</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1.8897999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Chicken rice soy sauce</t>
-        </is>
+      <c r="B30" t="s">
+        <v>82</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -932,36 +1278,32 @@
         <v>3.24</v>
       </c>
       <c r="E30">
-        <v>0.2945</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.29449999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>chicken</t>
-        </is>
+      <c r="B31" t="s">
+        <v>15</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>54.2829</v>
+        <v>54.282899999999998</v>
       </c>
       <c r="E31">
         <v>10.8566</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Chicken rice soy</t>
-        </is>
+      <c r="B32" t="s">
+        <v>82</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -970,17 +1312,15 @@
         <v>32</v>
       </c>
       <c r="E32">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Angelica</t>
-        </is>
+      <c r="B33" t="s">
+        <v>83</v>
       </c>
       <c r="C33">
         <v>600</v>
@@ -989,17 +1329,15 @@
         <v>59</v>
       </c>
       <c r="E33">
-        <v>0.0983</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>9.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Licorice</t>
-        </is>
+      <c r="B34" t="s">
+        <v>18</v>
       </c>
       <c r="C34">
         <v>600</v>
@@ -1008,17 +1346,15 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>0.0533</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>5.33E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Wolfberry</t>
-        </is>
+      <c r="B35" t="s">
+        <v>19</v>
       </c>
       <c r="C35">
         <v>600</v>
@@ -1030,14 +1366,12 @@
         <v>0.1067</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Yuzhu</t>
-        </is>
+      <c r="B36" t="s">
+        <v>20</v>
       </c>
       <c r="C36">
         <v>600</v>
@@ -1049,14 +1383,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Chuan Gong</t>
-        </is>
+      <c r="B37" t="s">
+        <v>21</v>
       </c>
       <c r="C37">
         <v>300</v>
@@ -1068,14 +1400,12 @@
         <v>0.1067</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sichuan peppercorn</t>
-        </is>
+      <c r="B38" t="s">
+        <v>22</v>
       </c>
       <c r="C38">
         <v>600</v>
@@ -1084,17 +1414,15 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>star anise</t>
-        </is>
+      <c r="B39" t="s">
+        <v>23</v>
       </c>
       <c r="C39">
         <v>600</v>
@@ -1103,17 +1431,15 @@
         <v>25</v>
       </c>
       <c r="E39">
-        <v>0.0417</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Codonopsis ginseng</t>
-        </is>
+      <c r="B40" t="s">
+        <v>84</v>
       </c>
       <c r="C40">
         <v>600</v>
@@ -1125,14 +1451,12 @@
         <v>0.2167</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Calamari</t>
-        </is>
+      <c r="B41" t="s">
+        <v>85</v>
       </c>
       <c r="C41">
         <v>600</v>
@@ -1144,14 +1468,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Pepper granules</t>
-        </is>
+      <c r="B42" t="s">
+        <v>86</v>
       </c>
       <c r="C42">
         <v>600</v>
@@ -1160,17 +1482,15 @@
         <v>200</v>
       </c>
       <c r="E42">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Ribs and pork chops</t>
-        </is>
+      <c r="B43" t="s">
+        <v>24</v>
       </c>
       <c r="C43">
         <v>450</v>
@@ -1179,17 +1499,15 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>0.0378</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh Sauce Bread</t>
-        </is>
+      <c r="B44" t="s">
+        <v>87</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1201,14 +1519,12 @@
         <v>66.19</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>crystal sugar</t>
-        </is>
+      <c r="B45" t="s">
+        <v>25</v>
       </c>
       <c r="C45">
         <v>600</v>
@@ -1220,14 +1536,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Chicken powder</t>
-        </is>
+      <c r="B46" t="s">
+        <v>13</v>
       </c>
       <c r="C46">
         <v>1000</v>
@@ -1236,17 +1550,15 @@
         <v>70</v>
       </c>
       <c r="E46">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>pepper</t>
-        </is>
+      <c r="B47" t="s">
+        <v>26</v>
       </c>
       <c r="C47">
         <v>1000</v>
@@ -1258,14 +1570,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Fried noodles</t>
-        </is>
+      <c r="B48" t="s">
+        <v>88</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1277,14 +1587,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>tomato</t>
-        </is>
+      <c r="B49" t="s">
+        <v>16</v>
       </c>
       <c r="C49">
         <v>600</v>
@@ -1293,36 +1601,32 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>0.0167</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>chicken</t>
-        </is>
+      <c r="B50" t="s">
+        <v>15</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>54.2829</v>
+        <v>54.282899999999998</v>
       </c>
       <c r="E50">
-        <v>6.7854</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>6.7854000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Bean soak</t>
-        </is>
+      <c r="B51" t="s">
+        <v>89</v>
       </c>
       <c r="C51">
         <v>600</v>
@@ -1331,17 +1635,15 @@
         <v>23</v>
       </c>
       <c r="E51">
-        <v>0.0383</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Laksa Juice</t>
-        </is>
+      <c r="B52" t="s">
+        <v>90</v>
       </c>
       <c r="C52">
         <v>24</v>
@@ -1350,17 +1652,15 @@
         <v>142.76</v>
       </c>
       <c r="E52">
-        <v>5.9483</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>5.9482999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Fish fillet fish cake</t>
-        </is>
+      <c r="B53" t="s">
+        <v>27</v>
       </c>
       <c r="C53">
         <v>500</v>
@@ -1369,17 +1669,15 @@
         <v>15.5</v>
       </c>
       <c r="E53">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Shrimp</t>
-        </is>
+      <c r="B54" t="s">
+        <v>28</v>
       </c>
       <c r="C54">
         <v>90</v>
@@ -1388,17 +1686,15 @@
         <v>150</v>
       </c>
       <c r="E54">
-        <v>1.6667</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1.6667000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>egg</t>
-        </is>
+      <c r="B55" t="s">
+        <v>29</v>
       </c>
       <c r="C55">
         <v>360</v>
@@ -1407,17 +1703,15 @@
         <v>340</v>
       </c>
       <c r="E55">
-        <v>0.9444</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Sprout</t>
-        </is>
+      <c r="B56" t="s">
+        <v>30</v>
       </c>
       <c r="C56">
         <v>600</v>
@@ -1426,17 +1720,15 @@
         <v>7.5</v>
       </c>
       <c r="E56">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Coarse rice noodles</t>
-        </is>
+      <c r="B57" t="s">
+        <v>91</v>
       </c>
       <c r="C57">
         <v>5000</v>
@@ -1445,17 +1737,15 @@
         <v>20</v>
       </c>
       <c r="E57">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Sanba sauce</t>
-        </is>
+      <c r="B58" t="s">
+        <v>92</v>
       </c>
       <c r="C58">
         <v>1000</v>
@@ -1467,14 +1757,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>tomato</t>
-        </is>
+      <c r="B59" t="s">
+        <v>16</v>
       </c>
       <c r="C59">
         <v>600</v>
@@ -1483,17 +1771,15 @@
         <v>8.5</v>
       </c>
       <c r="E59">
-        <v>0.0142</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Chicken rice soy sauce</t>
-        </is>
+      <c r="B60" t="s">
+        <v>82</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -1502,17 +1788,15 @@
         <v>3.24</v>
       </c>
       <c r="E60">
-        <v>0.324</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh Sauce Bread</t>
-        </is>
+      <c r="B61" t="s">
+        <v>87</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1524,14 +1808,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>crystal sugar</t>
-        </is>
+      <c r="B62" t="s">
+        <v>93</v>
       </c>
       <c r="C62">
         <v>600</v>
@@ -1540,17 +1822,15 @@
         <v>7</v>
       </c>
       <c r="E62">
-        <v>0.0117</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Fried noodles</t>
-        </is>
+      <c r="B63" t="s">
+        <v>88</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1562,14 +1842,12 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Laksa sauce</t>
-        </is>
+      <c r="B64" t="s">
+        <v>31</v>
       </c>
       <c r="C64">
         <v>1000</v>
@@ -1578,17 +1856,15 @@
         <v>57</v>
       </c>
       <c r="E64">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>crystal sugar</t>
-        </is>
+      <c r="B65" t="s">
+        <v>93</v>
       </c>
       <c r="C65">
         <v>500</v>
@@ -1597,17 +1873,15 @@
         <v>7</v>
       </c>
       <c r="E65">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Shrimp rice</t>
-        </is>
+      <c r="B66" t="s">
+        <v>94</v>
       </c>
       <c r="C66">
         <v>500</v>
@@ -1619,14 +1893,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Coconut milk</t>
-        </is>
+      <c r="B67" t="s">
+        <v>33</v>
       </c>
       <c r="C67">
         <v>1000</v>
@@ -1638,14 +1910,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Empty milk</t>
-        </is>
+      <c r="B68" t="s">
+        <v>95</v>
       </c>
       <c r="C68">
         <v>380</v>
@@ -1654,36 +1924,32 @@
         <v>11</v>
       </c>
       <c r="E68">
-        <v>0.0289</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Laksa Juice</t>
-        </is>
+      <c r="B69" t="s">
+        <v>90</v>
       </c>
       <c r="C69">
         <v>24</v>
       </c>
       <c r="D69">
-        <v>141.6443</v>
+        <v>141.64429999999999</v>
       </c>
       <c r="E69">
-        <v>5.9018</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>5.9017999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Fish fillet fish cake</t>
-        </is>
+      <c r="B70" t="s">
+        <v>27</v>
       </c>
       <c r="C70">
         <v>450</v>
@@ -1692,17 +1958,15 @@
         <v>15.8</v>
       </c>
       <c r="E70">
-        <v>0.0351</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>egg</t>
-        </is>
+      <c r="B71" t="s">
+        <v>29</v>
       </c>
       <c r="C71">
         <v>180</v>
@@ -1714,14 +1978,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Sprout</t>
-        </is>
+      <c r="B72" t="s">
+        <v>30</v>
       </c>
       <c r="C72">
         <v>600</v>
@@ -1730,17 +1992,15 @@
         <v>9</v>
       </c>
       <c r="E72">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Soup soy sauce</t>
-        </is>
+      <c r="B73" t="s">
+        <v>34</v>
       </c>
       <c r="C73">
         <v>1600</v>
@@ -1752,14 +2012,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Shrimp rice</t>
-        </is>
+      <c r="B74" t="s">
+        <v>32</v>
       </c>
       <c r="C74">
         <v>500</v>
@@ -1768,17 +2026,15 @@
         <v>35</v>
       </c>
       <c r="E74">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Laksa Juice</t>
-        </is>
+      <c r="B75" t="s">
+        <v>90</v>
       </c>
       <c r="C75">
         <v>24</v>
@@ -1790,14 +2046,12 @@
         <v>6.0743</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>lobster</t>
-        </is>
+      <c r="B76" t="s">
+        <v>35</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1809,14 +2063,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>egg</t>
-        </is>
+      <c r="B77" t="s">
+        <v>29</v>
       </c>
       <c r="C77">
         <v>180</v>
@@ -1825,17 +2077,15 @@
         <v>170</v>
       </c>
       <c r="E77">
-        <v>0.9444</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Sprout</t>
-        </is>
+      <c r="B78" t="s">
+        <v>30</v>
       </c>
       <c r="C78">
         <v>600</v>
@@ -1844,17 +2094,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>0.0133</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Laksa Juice</t>
-        </is>
+      <c r="B79" t="s">
+        <v>90</v>
       </c>
       <c r="C79">
         <v>24</v>
@@ -1863,17 +2111,15 @@
         <v>141.59</v>
       </c>
       <c r="E79">
-        <v>5.8996</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>5.8996000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Fat cow</t>
-        </is>
+      <c r="B80" t="s">
+        <v>96</v>
       </c>
       <c r="C80">
         <v>450</v>
@@ -1882,17 +2128,15 @@
         <v>33</v>
       </c>
       <c r="E80">
-        <v>0.0733</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>egg</t>
-        </is>
+      <c r="B81" t="s">
+        <v>29</v>
       </c>
       <c r="C81">
         <v>180</v>
@@ -1901,17 +2145,15 @@
         <v>175</v>
       </c>
       <c r="E81">
-        <v>0.9722</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Laksa Juice</t>
-        </is>
+      <c r="B82" t="s">
+        <v>90</v>
       </c>
       <c r="C82">
         <v>24</v>
@@ -1920,17 +2162,15 @@
         <v>142</v>
       </c>
       <c r="E82">
-        <v>5.9167</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>5.9166999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Cooked shrimp</t>
-        </is>
+      <c r="B83" t="s">
+        <v>36</v>
       </c>
       <c r="C83">
         <v>18</v>
@@ -1942,14 +2182,12 @@
         <v>2.2222</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Soup soy sauce</t>
-        </is>
+      <c r="B84" t="s">
+        <v>34</v>
       </c>
       <c r="C84">
         <v>1250</v>
@@ -1958,17 +2196,15 @@
         <v>32</v>
       </c>
       <c r="E84">
-        <v>0.0256</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Empty milk</t>
-        </is>
+      <c r="B85" t="s">
+        <v>95</v>
       </c>
       <c r="C85">
         <v>400</v>
@@ -1977,17 +2213,15 @@
         <v>11</v>
       </c>
       <c r="E85">
-        <v>0.0275</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Laksa Juice</t>
-        </is>
+      <c r="B86" t="s">
+        <v>90</v>
       </c>
       <c r="C86">
         <v>24</v>
@@ -1996,36 +2230,32 @@
         <v>145.518</v>
       </c>
       <c r="E86">
-        <v>6.0633</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>6.0632999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Hainan Chicken</t>
-        </is>
+      <c r="B87" t="s">
+        <v>37</v>
       </c>
       <c r="C87">
         <v>8</v>
       </c>
       <c r="D87">
-        <v>54.2829</v>
+        <v>54.282899999999998</v>
       </c>
       <c r="E87">
-        <v>6.7854</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>6.7854000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>onion</t>
-        </is>
+      <c r="B88" t="s">
+        <v>38</v>
       </c>
       <c r="C88">
         <v>600</v>
@@ -2034,17 +2264,15 @@
         <v>9</v>
       </c>
       <c r="E88">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mi Siang sauce</t>
-        </is>
+      <c r="B89" t="s">
+        <v>97</v>
       </c>
       <c r="C89">
         <v>1000</v>
@@ -2056,14 +2284,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Beehoon</t>
-        </is>
+      <c r="B90" t="s">
+        <v>39</v>
       </c>
       <c r="C90">
         <v>500</v>
@@ -2072,17 +2298,15 @@
         <v>7</v>
       </c>
       <c r="E90">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Sand sugar</t>
-        </is>
+      <c r="B91" t="s">
+        <v>98</v>
       </c>
       <c r="C91">
         <v>600</v>
@@ -2094,14 +2318,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>onion</t>
-        </is>
+      <c r="B92" t="s">
+        <v>38</v>
       </c>
       <c r="C92">
         <v>600</v>
@@ -2110,36 +2332,32 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>0.0133</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Fried rice noodles</t>
-        </is>
+      <c r="B93" t="s">
+        <v>99</v>
       </c>
       <c r="C93">
         <v>15</v>
       </c>
       <c r="D93">
-        <v>14.6611</v>
+        <v>14.661099999999999</v>
       </c>
       <c r="E93">
-        <v>0.9774</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0.97740000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mi Siam Juice</t>
-        </is>
+      <c r="B94" t="s">
+        <v>100</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -2151,14 +2369,12 @@
         <v>5.125</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Chinese chives</t>
-        </is>
+      <c r="B95" t="s">
+        <v>40</v>
       </c>
       <c r="C95">
         <v>600</v>
@@ -2167,17 +2383,15 @@
         <v>9</v>
       </c>
       <c r="E95">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Qingliang</t>
-        </is>
+      <c r="B96" t="s">
+        <v>101</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -2189,14 +2403,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
+      <c r="B97" t="s">
+        <v>10</v>
       </c>
       <c r="C97">
         <v>15000</v>
@@ -2205,17 +2417,15 @@
         <v>210</v>
       </c>
       <c r="E97">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>lemongrass</t>
-        </is>
+      <c r="B98" t="s">
+        <v>41</v>
       </c>
       <c r="C98">
         <v>600</v>
@@ -2227,14 +2437,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Curry sauce</t>
-        </is>
+      <c r="B99" t="s">
+        <v>42</v>
       </c>
       <c r="C99">
         <v>1000</v>
@@ -2243,17 +2451,15 @@
         <v>57</v>
       </c>
       <c r="E99">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Empty milk</t>
-        </is>
+      <c r="B100" t="s">
+        <v>95</v>
       </c>
       <c r="C100">
         <v>341</v>
@@ -2262,17 +2468,15 @@
         <v>11</v>
       </c>
       <c r="E100">
-        <v>0.0323</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>3.2300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Big chicken legs</t>
-        </is>
+      <c r="B101" t="s">
+        <v>102</v>
       </c>
       <c r="C101">
         <v>450</v>
@@ -2281,17 +2485,15 @@
         <v>10</v>
       </c>
       <c r="E101">
-        <v>0.0222</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>2.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Chicken full wings</t>
-        </is>
+      <c r="B102" t="s">
+        <v>43</v>
       </c>
       <c r="C102">
         <v>450</v>
@@ -2300,55 +2502,49 @@
         <v>13</v>
       </c>
       <c r="E102">
-        <v>0.0289</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Curry juice</t>
-        </is>
+      <c r="B103" t="s">
+        <v>103</v>
       </c>
       <c r="C103">
         <v>50</v>
       </c>
       <c r="D103">
-        <v>140.6527</v>
+        <v>140.65270000000001</v>
       </c>
       <c r="E103">
-        <v>2.8131</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>2.8130999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>chicken</t>
-        </is>
+      <c r="B104" t="s">
+        <v>15</v>
       </c>
       <c r="C104">
         <v>60</v>
       </c>
       <c r="D104">
-        <v>528.8985</v>
+        <v>528.89850000000001</v>
       </c>
       <c r="E104">
-        <v>8.815</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>8.8149999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Potato</t>
-        </is>
+      <c r="B105" t="s">
+        <v>44</v>
       </c>
       <c r="C105">
         <v>600</v>
@@ -2357,17 +2553,15 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>0.0133</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>rice</t>
-        </is>
+      <c r="B106" t="s">
+        <v>5</v>
       </c>
       <c r="C106">
         <v>25000</v>
@@ -2376,17 +2570,15 @@
         <v>280</v>
       </c>
       <c r="E106">
-        <v>0.0112</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Baguette</t>
-        </is>
+      <c r="B107" t="s">
+        <v>45</v>
       </c>
       <c r="C107">
         <v>7</v>
@@ -2395,36 +2587,32 @@
         <v>16</v>
       </c>
       <c r="E107">
-        <v>2.2857</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>2.2856999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Coconut Chicken Soup</t>
-        </is>
+      <c r="B108" t="s">
+        <v>46</v>
       </c>
       <c r="C108">
         <v>10</v>
       </c>
       <c r="D108">
-        <v>20.3275</v>
+        <v>20.327500000000001</v>
       </c>
       <c r="E108">
-        <v>2.0328</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>2.0327999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>chicken</t>
-        </is>
+      <c r="B109" t="s">
+        <v>104</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2436,14 +2624,12 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Beehoon</t>
-        </is>
+      <c r="B110" t="s">
+        <v>39</v>
       </c>
       <c r="C110">
         <v>500</v>
@@ -2452,17 +2638,15 @@
         <v>13.5</v>
       </c>
       <c r="E110">
-        <v>0.027</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Silver teeth</t>
-        </is>
+      <c r="B111" t="s">
+        <v>105</v>
       </c>
       <c r="C111">
         <v>600</v>
@@ -2471,17 +2655,15 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>0.0133</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Malay chicken soup</t>
-        </is>
+      <c r="B112" t="s">
+        <v>106</v>
       </c>
       <c r="C112">
         <v>1000</v>
@@ -2490,36 +2672,32 @@
         <v>58</v>
       </c>
       <c r="E112">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>chicken soup</t>
-        </is>
+      <c r="B113" t="s">
+        <v>47</v>
       </c>
       <c r="C113">
         <v>24</v>
       </c>
       <c r="D113">
-        <v>59.4151</v>
+        <v>59.415100000000002</v>
       </c>
       <c r="E113">
         <v>2.4756</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Chicken shredded</t>
-        </is>
+      <c r="B114" t="s">
+        <v>107</v>
       </c>
       <c r="C114">
         <v>454</v>
@@ -2528,17 +2706,15 @@
         <v>12</v>
       </c>
       <c r="E114">
-        <v>0.0264</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Yellow face</t>
-        </is>
+      <c r="B115" t="s">
+        <v>108</v>
       </c>
       <c r="C115">
         <v>600</v>
@@ -2550,14 +2726,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Yuanxi</t>
-        </is>
+      <c r="B116" t="s">
+        <v>48</v>
       </c>
       <c r="C116">
         <v>600</v>
@@ -2566,17 +2740,15 @@
         <v>20</v>
       </c>
       <c r="E116">
-        <v>0.0333</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Dried onion</t>
-        </is>
+      <c r="B117" t="s">
+        <v>12</v>
       </c>
       <c r="C117">
         <v>150</v>
@@ -2588,14 +2760,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Shrimp soup ingredients</t>
-        </is>
+      <c r="B118" t="s">
+        <v>109</v>
       </c>
       <c r="C118">
         <v>1000</v>
@@ -2607,33 +2777,29 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Shrimp soup</t>
-        </is>
+      <c r="B119" t="s">
+        <v>110</v>
       </c>
       <c r="C119">
         <v>24</v>
       </c>
       <c r="D119">
-        <v>61.4551</v>
+        <v>61.455100000000002</v>
       </c>
       <c r="E119">
         <v>2.5606</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>pork</t>
-        </is>
+      <c r="B120" t="s">
+        <v>49</v>
       </c>
       <c r="C120">
         <v>454</v>
@@ -2642,17 +2808,15 @@
         <v>27</v>
       </c>
       <c r="E120">
-        <v>0.0595</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Generalist</t>
-        </is>
+      <c r="B121" t="s">
+        <v>111</v>
       </c>
       <c r="C121">
         <v>600</v>
@@ -2661,17 +2825,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>0.0133</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>fillet</t>
-        </is>
+      <c r="B122" t="s">
+        <v>112</v>
       </c>
       <c r="C122">
         <v>454</v>
@@ -2680,17 +2842,15 @@
         <v>16</v>
       </c>
       <c r="E122">
-        <v>0.0352</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Dried onion</t>
-        </is>
+      <c r="B123" t="s">
+        <v>12</v>
       </c>
       <c r="C123">
         <v>250</v>
@@ -2702,14 +2862,12 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Ma Zhilin</t>
-        </is>
+      <c r="B124" t="s">
+        <v>50</v>
       </c>
       <c r="C124">
         <v>227</v>
@@ -2718,17 +2876,15 @@
         <v>19</v>
       </c>
       <c r="E124">
-        <v>0.0837</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>8.3699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Chicken Wings</t>
-        </is>
+      <c r="B125" t="s">
+        <v>51</v>
       </c>
       <c r="C125">
         <v>454</v>
@@ -2737,17 +2893,15 @@
         <v>13</v>
       </c>
       <c r="E125">
-        <v>0.0286</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>lemongrass</t>
-        </is>
+      <c r="B126" t="s">
+        <v>41</v>
       </c>
       <c r="C126">
         <v>600</v>
@@ -2759,14 +2913,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Dried onion</t>
-        </is>
+      <c r="B127" t="s">
+        <v>12</v>
       </c>
       <c r="C127">
         <v>600</v>
@@ -2775,17 +2927,15 @@
         <v>11.5</v>
       </c>
       <c r="E127">
-        <v>0.0192</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Curry powder</t>
-        </is>
+      <c r="B128" t="s">
+        <v>52</v>
       </c>
       <c r="C128">
         <v>1000</v>
@@ -2797,14 +2947,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>peanut</t>
-        </is>
+      <c r="B129" t="s">
+        <v>53</v>
       </c>
       <c r="C129">
         <v>600</v>
@@ -2813,17 +2961,15 @@
         <v>11</v>
       </c>
       <c r="E129">
-        <v>0.0183</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Male fish roe</t>
-        </is>
+      <c r="B130" t="s">
+        <v>113</v>
       </c>
       <c r="C130">
         <v>600</v>
@@ -2832,17 +2978,15 @@
         <v>25</v>
       </c>
       <c r="E130">
-        <v>0.0417</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Chicken Wings</t>
-        </is>
+      <c r="B131" t="s">
+        <v>51</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -2851,17 +2995,15 @@
         <v>31.64</v>
       </c>
       <c r="E131">
-        <v>6.328</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>6.3280000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>meal</t>
-        </is>
+      <c r="B132" t="s">
+        <v>5</v>
       </c>
       <c r="C132">
         <v>15</v>
@@ -2870,17 +3012,15 @@
         <v>56.38</v>
       </c>
       <c r="E132">
-        <v>3.7587</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>3.7587000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Samba sauce</t>
-        </is>
+      <c r="B133" t="s">
+        <v>114</v>
       </c>
       <c r="C133">
         <v>1000</v>
@@ -2892,14 +3032,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Lock noodle sauce</t>
-        </is>
+      <c r="B134" t="s">
+        <v>115</v>
       </c>
       <c r="C134">
         <v>1000</v>
@@ -2908,17 +3046,15 @@
         <v>58</v>
       </c>
       <c r="E134">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Dried beans</t>
-        </is>
+      <c r="B135" t="s">
+        <v>116</v>
       </c>
       <c r="C135">
         <v>600</v>
@@ -2930,14 +3066,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Sour tangerine</t>
-        </is>
+      <c r="B136" t="s">
+        <v>101</v>
       </c>
       <c r="C136">
         <v>450</v>
@@ -2946,17 +3080,15 @@
         <v>20</v>
       </c>
       <c r="E136">
-        <v>0.0444</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>butter</t>
-        </is>
+      <c r="B137" t="s">
+        <v>54</v>
       </c>
       <c r="C137">
         <v>600</v>
@@ -2968,14 +3100,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Lock noodle sauce</t>
-        </is>
+      <c r="B138" t="s">
+        <v>115</v>
       </c>
       <c r="C138">
         <v>12</v>
@@ -2984,17 +3114,15 @@
         <v>58</v>
       </c>
       <c r="E138">
-        <v>4.8333</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>4.8333000000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Green pepper</t>
-        </is>
+      <c r="B139" t="s">
+        <v>55</v>
       </c>
       <c r="C139">
         <v>600</v>
@@ -3003,17 +3131,15 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Pork Blossom</t>
-        </is>
+      <c r="B140" t="s">
+        <v>117</v>
       </c>
       <c r="C140">
         <v>454</v>
@@ -3022,17 +3148,15 @@
         <v>16.8</v>
       </c>
       <c r="E140">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>lemongrass</t>
-        </is>
+      <c r="B141" t="s">
+        <v>41</v>
       </c>
       <c r="C141">
         <v>600</v>
@@ -3041,17 +3165,15 @@
         <v>20</v>
       </c>
       <c r="E141">
-        <v>0.0333</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Dried onion</t>
-        </is>
+      <c r="B142" t="s">
+        <v>12</v>
       </c>
       <c r="C142">
         <v>600</v>
@@ -3063,14 +3185,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Curry powder</t>
-        </is>
+      <c r="B143" t="s">
+        <v>52</v>
       </c>
       <c r="C143">
         <v>500</v>
@@ -3079,17 +3199,15 @@
         <v>48</v>
       </c>
       <c r="E143">
-        <v>0.096</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Cumin powder</t>
-        </is>
+      <c r="B144" t="s">
+        <v>56</v>
       </c>
       <c r="C144">
         <v>500</v>
@@ -3101,14 +3219,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Satay pork skewers</t>
-        </is>
+      <c r="B145" t="s">
+        <v>57</v>
       </c>
       <c r="C145">
         <v>35</v>
@@ -3117,17 +3233,15 @@
         <v>290</v>
       </c>
       <c r="E145">
-        <v>8.2857</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>8.2857000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Satay sauce</t>
-        </is>
+      <c r="B146" t="s">
+        <v>58</v>
       </c>
       <c r="C146">
         <v>1000</v>
@@ -3139,14 +3253,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Nanjiang</t>
-        </is>
+      <c r="B147" t="s">
+        <v>59</v>
       </c>
       <c r="C147">
         <v>600</v>
@@ -3155,17 +3267,15 @@
         <v>25</v>
       </c>
       <c r="E147">
-        <v>0.0417</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Ginger</t>
-        </is>
+      <c r="B148" t="s">
+        <v>60</v>
       </c>
       <c r="C148">
         <v>1000</v>
@@ -3177,14 +3287,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>lemongrass</t>
-        </is>
+      <c r="B149" t="s">
+        <v>41</v>
       </c>
       <c r="C149">
         <v>600</v>
@@ -3193,17 +3301,15 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Dried onion</t>
-        </is>
+      <c r="B150" t="s">
+        <v>12</v>
       </c>
       <c r="C150">
         <v>600</v>
@@ -3215,14 +3321,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Shi Su</t>
-        </is>
+      <c r="B151" t="s">
+        <v>61</v>
       </c>
       <c r="C151">
         <v>600</v>
@@ -3234,14 +3338,12 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Red pepper</t>
-        </is>
+      <c r="B152" t="s">
+        <v>9</v>
       </c>
       <c r="C152">
         <v>600</v>
@@ -3250,17 +3352,15 @@
         <v>13</v>
       </c>
       <c r="E152">
-        <v>0.0217</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Garlic</t>
-        </is>
+      <c r="B153" t="s">
+        <v>8</v>
       </c>
       <c r="C153">
         <v>25600</v>
@@ -3269,17 +3369,15 @@
         <v>10</v>
       </c>
       <c r="E153">
-        <v>0.0004</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Dried peppers</t>
-        </is>
+      <c r="B154" t="s">
+        <v>62</v>
       </c>
       <c r="C154">
         <v>600</v>
@@ -3291,14 +3389,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Shrimp paste</t>
-        </is>
+      <c r="B155" t="s">
+        <v>63</v>
       </c>
       <c r="C155">
         <v>250</v>
@@ -3307,17 +3403,15 @@
         <v>12</v>
       </c>
       <c r="E155">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Shrimp rice</t>
-        </is>
+      <c r="B156" t="s">
+        <v>32</v>
       </c>
       <c r="C156">
         <v>500</v>
@@ -3329,14 +3423,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
+      <c r="B157" t="s">
+        <v>10</v>
       </c>
       <c r="C157">
         <v>15000</v>
@@ -3345,17 +3437,15 @@
         <v>135</v>
       </c>
       <c r="E157">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Sticky rice</t>
-        </is>
+      <c r="B158" t="s">
+        <v>64</v>
       </c>
       <c r="C158">
         <v>1000</v>
@@ -3367,14 +3457,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Butterfly bean flower</t>
-        </is>
+      <c r="B159" t="s">
+        <v>118</v>
       </c>
       <c r="C159">
         <v>600</v>
@@ -3383,17 +3471,15 @@
         <v>20</v>
       </c>
       <c r="E159">
-        <v>0.0333</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Kaya sauce</t>
-        </is>
+      <c r="B160" t="s">
+        <v>65</v>
       </c>
       <c r="C160">
         <v>1000</v>
@@ -3402,17 +3488,15 @@
         <v>78</v>
       </c>
       <c r="E160">
-        <v>0.078</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Chicken full wings</t>
-        </is>
+      <c r="B161" t="s">
+        <v>43</v>
       </c>
       <c r="C161">
         <v>454</v>
@@ -3421,17 +3505,15 @@
         <v>13</v>
       </c>
       <c r="E161">
-        <v>0.0286</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Shrimp sauce</t>
-        </is>
+      <c r="B162" t="s">
+        <v>66</v>
       </c>
       <c r="C162">
         <v>227</v>
@@ -3440,17 +3522,15 @@
         <v>27</v>
       </c>
       <c r="E162">
-        <v>0.1189</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>0.11890000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Oyster sauce</t>
-        </is>
+      <c r="B163" t="s">
+        <v>67</v>
       </c>
       <c r="C163">
         <v>700</v>
@@ -3459,17 +3539,15 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>0.0114</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Huadiao wine</t>
-        </is>
+      <c r="B164" t="s">
+        <v>68</v>
       </c>
       <c r="C164">
         <v>640</v>
@@ -3478,17 +3556,15 @@
         <v>20</v>
       </c>
       <c r="E164">
-        <v>0.0313</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>White fish egg</t>
-        </is>
+      <c r="B165" t="s">
+        <v>119</v>
       </c>
       <c r="C165">
         <v>23</v>
@@ -3497,17 +3573,15 @@
         <v>18</v>
       </c>
       <c r="E165">
-        <v>0.7826</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>0.78259999999999996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Tomato juice</t>
-        </is>
+      <c r="B166" t="s">
+        <v>69</v>
       </c>
       <c r="C166">
         <v>340</v>
@@ -3516,17 +3590,15 @@
         <v>5.8</v>
       </c>
       <c r="E166">
-        <v>0.0171</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Curry powder</t>
-        </is>
+      <c r="B167" t="s">
+        <v>52</v>
       </c>
       <c r="C167">
         <v>1000</v>
@@ -3535,17 +3607,15 @@
         <v>48</v>
       </c>
       <c r="E167">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Peanut butter</t>
-        </is>
+      <c r="B168" t="s">
+        <v>120</v>
       </c>
       <c r="C168">
         <v>1000</v>
@@ -3554,17 +3624,15 @@
         <v>56</v>
       </c>
       <c r="E168">
-        <v>0.056</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
+      <c r="B169" t="s">
+        <v>121</v>
       </c>
       <c r="C169">
         <v>250</v>
@@ -3576,14 +3644,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Southern breast</t>
-        </is>
+      <c r="B170" t="s">
+        <v>121</v>
       </c>
       <c r="C170">
         <v>250</v>
@@ -3595,14 +3661,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>White sugar</t>
-        </is>
+      <c r="B171" t="s">
+        <v>70</v>
       </c>
       <c r="C171">
         <v>600</v>
@@ -3614,14 +3678,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>maltose</t>
-        </is>
+      <c r="B172" t="s">
+        <v>122</v>
       </c>
       <c r="C172">
         <v>100</v>
@@ -3630,17 +3692,15 @@
         <v>2.5</v>
       </c>
       <c r="E172">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Sanba sauce</t>
-        </is>
+      <c r="B173" t="s">
+        <v>92</v>
       </c>
       <c r="C173">
         <v>1000</v>
@@ -3649,17 +3709,15 @@
         <v>55</v>
       </c>
       <c r="E173">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Steamed Vermicelli Roll</t>
-        </is>
+      <c r="B174" t="s">
+        <v>123</v>
       </c>
       <c r="C174">
         <v>600</v>
@@ -3668,17 +3726,15 @@
         <v>5</v>
       </c>
       <c r="E174">
-        <v>0.0083</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Sesame</t>
-        </is>
+      <c r="B175" t="s">
+        <v>71</v>
       </c>
       <c r="C175">
         <v>500</v>
@@ -3687,17 +3743,15 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Dried onion</t>
-        </is>
+      <c r="B176" t="s">
+        <v>12</v>
       </c>
       <c r="C176">
         <v>500</v>
@@ -3709,14 +3763,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Noodle sauce</t>
-        </is>
+      <c r="B177" t="s">
+        <v>124</v>
       </c>
       <c r="C177">
         <v>580</v>
@@ -3725,17 +3777,15 @@
         <v>10</v>
       </c>
       <c r="E177">
-        <v>0.0172</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Seafood sauce</t>
-        </is>
+      <c r="B178" t="s">
+        <v>72</v>
       </c>
       <c r="C178">
         <v>250</v>
@@ -3744,7 +3794,7 @@
         <v>6</v>
       </c>
       <c r="E178">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
     </row>
   </sheetData>
